--- a/public/export/tkbpccm.xlsx
+++ b/public/export/tkbpccm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
   <si>
     <t>THỜI KHÓA BIỂU Tổ CHủ NHIệM</t>
   </si>
@@ -102,78 +102,192 @@
     <t>Thứ 2</t>
   </si>
   <si>
+    <t>Học vần-1D</t>
+  </si>
+  <si>
+    <t>Tập đọc-2A</t>
+  </si>
+  <si>
+    <t>Tập đọc-2B</t>
+  </si>
+  <si>
+    <t>Tập đọc-2C</t>
+  </si>
+  <si>
+    <t>Tập đọc-2D</t>
+  </si>
+  <si>
+    <t>Tập đọc-2E</t>
+  </si>
+  <si>
+    <t>Tập đọc-3A</t>
+  </si>
+  <si>
+    <t>Tập đọc-3B</t>
+  </si>
+  <si>
+    <t>Tập đọc-3C</t>
+  </si>
+  <si>
+    <t>Tập đọc-3D</t>
+  </si>
+  <si>
+    <t>Tập đọc-4A</t>
+  </si>
+  <si>
+    <t>Tập đọc-4B</t>
+  </si>
+  <si>
+    <t>Tập đọc-4C</t>
+  </si>
+  <si>
+    <t>Tập đọc-5A</t>
+  </si>
+  <si>
+    <t>Tập đọc-5B</t>
+  </si>
+  <si>
+    <t>Anh văn-5D</t>
+  </si>
+  <si>
+    <t>Anh văn-5C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-4D</t>
+  </si>
+  <si>
+    <t>Toán-1A</t>
+  </si>
+  <si>
+    <t>Học vần-1B</t>
+  </si>
+  <si>
+    <t>Học vần-1C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-5D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-5C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2E</t>
+  </si>
+  <si>
+    <t>Tập viết-3A</t>
+  </si>
+  <si>
+    <t>Tập viết-3B</t>
+  </si>
+  <si>
+    <t>Tập viết-3C</t>
+  </si>
+  <si>
+    <t>Tập viết-3D</t>
+  </si>
+  <si>
+    <t>Tập đọc-5C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2D</t>
+  </si>
+  <si>
+    <t>Thứ 2 chiều</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5B</t>
+  </si>
+  <si>
+    <t>Tập đọc-5D</t>
+  </si>
+  <si>
     <t>Học vần-1A</t>
   </si>
   <si>
-    <t>Học vần-1B</t>
-  </si>
-  <si>
-    <t>Học vần-1C</t>
-  </si>
-  <si>
-    <t>Học vần-1D</t>
-  </si>
-  <si>
-    <t>Tập đọc-2A</t>
-  </si>
-  <si>
-    <t>Tập đọc-2B</t>
-  </si>
-  <si>
-    <t>Tập đọc-2C</t>
-  </si>
-  <si>
-    <t>Tập đọc-2D</t>
-  </si>
-  <si>
-    <t>Tập đọc-2E</t>
-  </si>
-  <si>
-    <t>Tập đọc-3A</t>
-  </si>
-  <si>
-    <t>Tập đọc-3B</t>
-  </si>
-  <si>
-    <t>Tập đọc-3C</t>
-  </si>
-  <si>
-    <t>Tập đọc-3D</t>
-  </si>
-  <si>
-    <t>Tập đọc-4A</t>
-  </si>
-  <si>
-    <t>Tập đọc-4B</t>
-  </si>
-  <si>
-    <t>Tập đọc-4C</t>
-  </si>
-  <si>
-    <t>Tập đọc-5A</t>
-  </si>
-  <si>
-    <t>Tập đọc-5B</t>
-  </si>
-  <si>
-    <t>Anh văn-5D</t>
-  </si>
-  <si>
-    <t>Anh văn-5C</t>
-  </si>
-  <si>
-    <t>Âm nhạc-4D</t>
-  </si>
-  <si>
-    <t>Thứ 2 chiều</t>
-  </si>
-  <si>
     <t>Thứ 3</t>
   </si>
   <si>
-    <t>Toán-1A</t>
-  </si>
-  <si>
     <t>Tập viết-2A</t>
   </si>
   <si>
@@ -201,30 +315,72 @@
     <t>Toán-3D</t>
   </si>
   <si>
-    <t>Tập làm văn-4A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5B</t>
-  </si>
-  <si>
     <t>Luyện từ và câu-5C</t>
   </si>
   <si>
-    <t>Tập đọc-5D</t>
+    <t>Tập làm văn-2A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2E</t>
+  </si>
+  <si>
+    <t>Toán-4A</t>
+  </si>
+  <si>
+    <t>Toán-4B</t>
+  </si>
+  <si>
+    <t>Toán-4C</t>
+  </si>
+  <si>
+    <t>Toán-5A</t>
+  </si>
+  <si>
+    <t>Toán-5B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5D</t>
+  </si>
+  <si>
+    <t>Toán-2A</t>
+  </si>
+  <si>
+    <t>Toán-2B</t>
+  </si>
+  <si>
+    <t>Toán-2C</t>
+  </si>
+  <si>
+    <t>Toán-2D</t>
+  </si>
+  <si>
+    <t>Toán-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5C</t>
   </si>
   <si>
     <t>Thứ 3 chiều</t>
   </si>
   <si>
+    <t>Tập làm văn-5D</t>
+  </si>
+  <si>
+    <t>Đạo đức-1A</t>
+  </si>
+  <si>
+    <t>Toán-5C</t>
+  </si>
+  <si>
     <t>Thứ 4 chiều</t>
   </si>
   <si>
@@ -240,42 +396,21 @@
     <t>Toán-1D</t>
   </si>
   <si>
-    <t>Toán-2A</t>
-  </si>
-  <si>
-    <t>Toán-2B</t>
-  </si>
-  <si>
-    <t>Toán-2C</t>
-  </si>
-  <si>
-    <t>Toán-2D</t>
-  </si>
-  <si>
-    <t>Toán-2E</t>
-  </si>
-  <si>
-    <t>Toán-4A</t>
-  </si>
-  <si>
-    <t>Toán-4B</t>
-  </si>
-  <si>
-    <t>Toán-4C</t>
-  </si>
-  <si>
-    <t>Toán-5A</t>
-  </si>
-  <si>
-    <t>Toán-5B</t>
-  </si>
-  <si>
-    <t>Toán-5C</t>
-  </si>
-  <si>
     <t>Toán-5D</t>
   </si>
   <si>
+    <t>Thủ công-1A</t>
+  </si>
+  <si>
+    <t>Thể dục-1A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1A</t>
+  </si>
+  <si>
     <t>Thứ 5</t>
   </si>
   <si>
@@ -297,9 +432,174 @@
     <t>Đạo đức-3D</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-5B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-2E</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4B</t>
+  </si>
+  <si>
+    <t>Chính tả-4C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1C</t>
+  </si>
+  <si>
+    <t>Đạo đức-1D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2E</t>
+  </si>
+  <si>
+    <t>Thủ công-3A</t>
+  </si>
+  <si>
+    <t>Thủ công-3B</t>
+  </si>
+  <si>
+    <t>Thủ công-3C</t>
+  </si>
+  <si>
+    <t>Thủ công-3D</t>
+  </si>
+  <si>
+    <t>Chính tả-4A</t>
+  </si>
+  <si>
+    <t>Chính tả-4B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4C</t>
+  </si>
+  <si>
+    <t>Chính tả-5A</t>
+  </si>
+  <si>
+    <t>Chính tả-5B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1D</t>
+  </si>
+  <si>
+    <t>Thủ công-2A</t>
+  </si>
+  <si>
+    <t>Thủ công-2B</t>
+  </si>
+  <si>
+    <t>Thủ công-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-2D</t>
+  </si>
+  <si>
+    <t>Thủ công-2E</t>
+  </si>
+  <si>
+    <t>Thể dục-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-3D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5B</t>
+  </si>
+  <si>
     <t>Thứ 6</t>
   </si>
   <si>
+    <t>Đạo đức-5C</t>
+  </si>
+  <si>
     <t>Thứ 6 chiều</t>
   </si>
   <si>
@@ -327,18 +627,6 @@
     <t>Thể dục-2E</t>
   </si>
   <si>
-    <t>Thể dục-3A</t>
-  </si>
-  <si>
-    <t>Thể dục-3B</t>
-  </si>
-  <si>
-    <t>Thể dục-3C</t>
-  </si>
-  <si>
-    <t>Thể dục-3D</t>
-  </si>
-  <si>
     <t>Chào cờ-4A</t>
   </si>
   <si>
@@ -360,7 +648,178 @@
     <t>Đạo đức-5D</t>
   </si>
   <si>
+    <t>Thể dục-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3D</t>
+  </si>
+  <si>
+    <t>Khoa học-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-5B</t>
+  </si>
+  <si>
+    <t>Chính tả-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2E</t>
+  </si>
+  <si>
+    <t>Chính tả-3A</t>
+  </si>
+  <si>
+    <t>Chính tả-3B</t>
+  </si>
+  <si>
+    <t>Chính tả-3C</t>
+  </si>
+  <si>
+    <t>Chính tả-3D</t>
+  </si>
+  <si>
+    <t>Lịch sử-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-5D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1D</t>
+  </si>
+  <si>
+    <t>Chính tả-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-2E</t>
+  </si>
+  <si>
     <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>Lịch sử-4A</t>
+  </si>
+  <si>
+    <t>Lịch sử-4B</t>
+  </si>
+  <si>
+    <t>Địa lý-4C</t>
+  </si>
+  <si>
+    <t>Lịch sử-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5D</t>
+  </si>
+  <si>
+    <t>Chào cờ-1B</t>
+  </si>
+  <si>
+    <t>Chào cờ-1C</t>
+  </si>
+  <si>
+    <t>Chào cờ-1D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3D</t>
+  </si>
+  <si>
+    <t>Địa lý-4A</t>
+  </si>
+  <si>
+    <t>Địa lý-4B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Địa lý-5B</t>
+  </si>
+  <si>
+    <t>Lịch sử-5C</t>
+  </si>
+  <si>
+    <t>Chào cờ-5D</t>
   </si>
 </sst>
 </file>
@@ -751,25 +1210,25 @@
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="17.567139" bestFit="true" customWidth="true" style="0"/>
@@ -944,59 +1403,53 @@
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1010,64 +1463,64 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1079,60 +1532,60 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1144,60 +1597,58 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="P8" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1209,60 +1660,58 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1270,67 +1719,61 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1340,62 +1783,26 @@
       <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1405,62 +1812,26 @@
       <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1470,63 +1841,25 @@
       <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -1538,130 +1871,56 @@
         <v>5</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -1671,61 +1930,45 @@
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="P16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1737,58 +1980,58 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -1800,58 +2043,58 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -1863,58 +2106,58 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -1922,67 +2165,67 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -1997,58 +2240,58 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2060,59 +2303,29 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -2122,60 +2335,26 @@
       <c r="B23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -2185,125 +2364,57 @@
       <c r="B24" s="3">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -2313,60 +2424,26 @@
       <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -2376,57 +2453,23 @@
       <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -2440,64 +2483,64 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -2512,55 +2555,55 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -2568,64 +2611,64 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -2637,58 +2680,58 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -2700,58 +2743,58 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -2763,59 +2806,49 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2825,125 +2858,55 @@
       <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -2956,63 +2919,25 @@
         <v>2</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -3022,60 +2947,26 @@
       <c r="B37" s="3">
         <v>3</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -3085,60 +2976,26 @@
       <c r="B38" s="3">
         <v>4</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -3148,59 +3005,45 @@
       <c r="B39" s="3">
         <v>5</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -3208,64 +3051,62 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
@@ -3277,58 +3118,58 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="R41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -3340,59 +3181,57 @@
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -3403,61 +3242,61 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -3471,59 +3310,57 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
@@ -3531,65 +3368,35 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="3" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -3599,60 +3406,26 @@
       <c r="B46" s="3">
         <v>2</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -3662,60 +3435,26 @@
       <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
@@ -3725,60 +3464,26 @@
       <c r="B48" s="3">
         <v>4</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -3788,122 +3493,54 @@
       <c r="B49" s="3">
         <v>5</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -3918,61 +3555,61 @@
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -3988,52 +3625,52 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -4045,56 +3682,56 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -4106,56 +3743,56 @@
         <v>5</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -4163,62 +3800,62 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
@@ -4230,57 +3867,49 @@
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -4290,58 +3919,26 @@
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
-      <c r="V57" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
@@ -4351,60 +3948,24 @@
       <c r="B58" s="3">
         <v>4</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -4418,123 +3979,55 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="3" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
@@ -4544,58 +4037,26 @@
       <c r="B61" s="3">
         <v>2</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
@@ -4605,27 +4066,13 @@
       <c r="B62" s="3">
         <v>3</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>

--- a/public/export/tkbpccm.xlsx
+++ b/public/export/tkbpccm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>THỜI KHÓA BIỂU Tổ CHủ NHIệM</t>
   </si>
@@ -147,15 +147,6 @@
     <t>Tập đọc-5B</t>
   </si>
   <si>
-    <t>Anh văn-5D</t>
-  </si>
-  <si>
-    <t>Anh văn-5C</t>
-  </si>
-  <si>
-    <t>Âm nhạc-4D</t>
-  </si>
-  <si>
     <t>Toán-1A</t>
   </si>
   <si>
@@ -165,12 +156,6 @@
     <t>Học vần-1C</t>
   </si>
   <si>
-    <t>Kỹ thuật-4D</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5D</t>
-  </si>
-  <si>
     <t>Luyện từ và câu-3A</t>
   </si>
   <si>
@@ -198,9 +183,6 @@
     <t>Luyện từ và câu-5B</t>
   </si>
   <si>
-    <t>Âm nhạc-5C</t>
-  </si>
-  <si>
     <t>Kể chuyện-2A</t>
   </si>
   <si>
@@ -231,9 +213,6 @@
     <t>Tập đọc-5C</t>
   </si>
   <si>
-    <t>Kỹ thuật-5D</t>
-  </si>
-  <si>
     <t>Luyện từ và câu-2A</t>
   </si>
   <si>
@@ -246,42 +225,42 @@
     <t>Luyện từ và câu-2D</t>
   </si>
   <si>
+    <t>Luyện từ và câu-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5B</t>
+  </si>
+  <si>
+    <t>Tập đọc-5D</t>
+  </si>
+  <si>
     <t>Thứ 2 chiều</t>
   </si>
   <si>
-    <t>Luyện từ và câu-2E</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3D</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5B</t>
-  </si>
-  <si>
-    <t>Tập đọc-5D</t>
-  </si>
-  <si>
     <t>Học vần-1A</t>
   </si>
   <si>
@@ -369,18 +348,18 @@
     <t>Tập làm văn-5C</t>
   </si>
   <si>
+    <t>Tập làm văn-5D</t>
+  </si>
+  <si>
+    <t>Đạo đức-1A</t>
+  </si>
+  <si>
+    <t>Toán-5C</t>
+  </si>
+  <si>
     <t>Thứ 3 chiều</t>
   </si>
   <si>
-    <t>Tập làm văn-5D</t>
-  </si>
-  <si>
-    <t>Đạo đức-1A</t>
-  </si>
-  <si>
-    <t>Toán-5C</t>
-  </si>
-  <si>
     <t>Thứ 4 chiều</t>
   </si>
   <si>
@@ -420,406 +399,403 @@
     <t>Đạo đức-3A</t>
   </si>
   <si>
+    <t>Đạo đức-3B</t>
+  </si>
+  <si>
+    <t>Đạo đức-3C</t>
+  </si>
+  <si>
+    <t>Đạo đức-3D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-2E</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4B</t>
+  </si>
+  <si>
+    <t>Chính tả-4C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1C</t>
+  </si>
+  <si>
+    <t>Đạo đức-1D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2E</t>
+  </si>
+  <si>
+    <t>Thủ công-3A</t>
+  </si>
+  <si>
+    <t>Thủ công-3B</t>
+  </si>
+  <si>
+    <t>Thủ công-3C</t>
+  </si>
+  <si>
+    <t>Thủ công-3D</t>
+  </si>
+  <si>
+    <t>Chính tả-4A</t>
+  </si>
+  <si>
+    <t>Chính tả-4B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4C</t>
+  </si>
+  <si>
+    <t>Chính tả-5A</t>
+  </si>
+  <si>
+    <t>Chính tả-5B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1D</t>
+  </si>
+  <si>
+    <t>Thủ công-2A</t>
+  </si>
+  <si>
+    <t>Thủ công-2B</t>
+  </si>
+  <si>
+    <t>Thủ công-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-2D</t>
+  </si>
+  <si>
+    <t>Thủ công-2E</t>
+  </si>
+  <si>
+    <t>Thể dục-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-3D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-5C</t>
+  </si>
+  <si>
     <t>Thứ 5 chiều</t>
   </si>
   <si>
-    <t>Đạo đức-3B</t>
-  </si>
-  <si>
-    <t>Đạo đức-3C</t>
-  </si>
-  <si>
-    <t>Đạo đức-3D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3D</t>
-  </si>
-  <si>
-    <t>Đạo đức-4A</t>
-  </si>
-  <si>
-    <t>Đạo đức-4B</t>
-  </si>
-  <si>
-    <t>Đạo đức-4C</t>
-  </si>
-  <si>
-    <t>Đạo đức-5A</t>
-  </si>
-  <si>
-    <t>Đạo đức-5B</t>
-  </si>
-  <si>
-    <t>Âm nhạc-1A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2B</t>
-  </si>
-  <si>
-    <t>Đạo đức-2C</t>
-  </si>
-  <si>
-    <t>Đạo đức-2D</t>
-  </si>
-  <si>
-    <t>Đạo đức-2E</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-4A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-4B</t>
-  </si>
-  <si>
-    <t>Chính tả-4C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5B</t>
-  </si>
-  <si>
-    <t>Đạo đức-1B</t>
-  </si>
-  <si>
-    <t>Đạo đức-1C</t>
-  </si>
-  <si>
-    <t>Đạo đức-1D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2E</t>
-  </si>
-  <si>
-    <t>Thủ công-3A</t>
-  </si>
-  <si>
-    <t>Thủ công-3B</t>
-  </si>
-  <si>
-    <t>Thủ công-3C</t>
-  </si>
-  <si>
-    <t>Thủ công-3D</t>
-  </si>
-  <si>
-    <t>Chính tả-4A</t>
-  </si>
-  <si>
-    <t>Chính tả-4B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4C</t>
-  </si>
-  <si>
-    <t>Chính tả-5A</t>
-  </si>
-  <si>
-    <t>Chính tả-5B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1D</t>
-  </si>
-  <si>
-    <t>Thủ công-2A</t>
-  </si>
-  <si>
-    <t>Thủ công-2B</t>
-  </si>
-  <si>
-    <t>Thủ công-2C</t>
-  </si>
-  <si>
-    <t>Thủ công-2D</t>
-  </si>
-  <si>
-    <t>Thủ công-2E</t>
-  </si>
-  <si>
-    <t>Thể dục-3A</t>
-  </si>
-  <si>
-    <t>Thể dục-3B</t>
-  </si>
-  <si>
-    <t>Thể dục-3C</t>
-  </si>
-  <si>
-    <t>Thể dục-3D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4B</t>
-  </si>
-  <si>
-    <t>Chào cờ-4C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5B</t>
-  </si>
-  <si>
     <t>Thứ 6</t>
   </si>
   <si>
-    <t>Đạo đức-5C</t>
+    <t>Thủ công-1B</t>
+  </si>
+  <si>
+    <t>Thủ công-1C</t>
+  </si>
+  <si>
+    <t>Thủ công-1D</t>
+  </si>
+  <si>
+    <t>Thể dục-2A</t>
+  </si>
+  <si>
+    <t>Thể dục-2B</t>
+  </si>
+  <si>
+    <t>Thể dục-2C</t>
+  </si>
+  <si>
+    <t>Thể dục-2D</t>
+  </si>
+  <si>
+    <t>Thể dục-2E</t>
+  </si>
+  <si>
+    <t>Chào cờ-4A</t>
+  </si>
+  <si>
+    <t>Chào cờ-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-4C</t>
+  </si>
+  <si>
+    <t>Chào cờ-5A</t>
+  </si>
+  <si>
+    <t>Chào cờ-5B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5C</t>
+  </si>
+  <si>
+    <t>Đạo đức-5D</t>
+  </si>
+  <si>
+    <t>Thể dục-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3D</t>
+  </si>
+  <si>
+    <t>Khoa học-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-5B</t>
+  </si>
+  <si>
+    <t>Chính tả-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2E</t>
+  </si>
+  <si>
+    <t>Chính tả-3A</t>
+  </si>
+  <si>
+    <t>Chính tả-3B</t>
+  </si>
+  <si>
+    <t>Chính tả-3C</t>
+  </si>
+  <si>
+    <t>Chính tả-3D</t>
+  </si>
+  <si>
+    <t>Lịch sử-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-5D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1D</t>
+  </si>
+  <si>
+    <t>Chính tả-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-2E</t>
+  </si>
+  <si>
+    <t>Lịch sử-4A</t>
+  </si>
+  <si>
+    <t>Lịch sử-4B</t>
+  </si>
+  <si>
+    <t>Địa lý-4C</t>
+  </si>
+  <si>
+    <t>Lịch sử-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5D</t>
+  </si>
+  <si>
+    <t>Chào cờ-1B</t>
+  </si>
+  <si>
+    <t>Chào cờ-1C</t>
+  </si>
+  <si>
+    <t>Chào cờ-1D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3D</t>
+  </si>
+  <si>
+    <t>Địa lý-4A</t>
+  </si>
+  <si>
+    <t>Địa lý-4B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Địa lý-5B</t>
+  </si>
+  <si>
+    <t>Lịch sử-5C</t>
+  </si>
+  <si>
+    <t>Chào cờ-5D</t>
   </si>
   <si>
     <t>Thứ 6 chiều</t>
   </si>
   <si>
-    <t>Thủ công-1B</t>
-  </si>
-  <si>
-    <t>Thủ công-1C</t>
-  </si>
-  <si>
-    <t>Thủ công-1D</t>
-  </si>
-  <si>
-    <t>Thể dục-2A</t>
-  </si>
-  <si>
-    <t>Thể dục-2B</t>
-  </si>
-  <si>
-    <t>Thể dục-2C</t>
-  </si>
-  <si>
-    <t>Thể dục-2D</t>
-  </si>
-  <si>
-    <t>Thể dục-2E</t>
-  </si>
-  <si>
-    <t>Chào cờ-4A</t>
-  </si>
-  <si>
-    <t>Chào cờ-4B</t>
-  </si>
-  <si>
-    <t>Khoa học-4C</t>
-  </si>
-  <si>
-    <t>Chào cờ-5A</t>
-  </si>
-  <si>
-    <t>Chào cờ-5B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5C</t>
-  </si>
-  <si>
-    <t>Đạo đức-5D</t>
-  </si>
-  <si>
-    <t>Thể dục-1B</t>
-  </si>
-  <si>
-    <t>Thể dục-1C</t>
-  </si>
-  <si>
-    <t>Thể dục-1D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3D</t>
-  </si>
-  <si>
-    <t>Khoa học-4A</t>
-  </si>
-  <si>
-    <t>Khoa học-4B</t>
-  </si>
-  <si>
-    <t>Khoa học-5A</t>
-  </si>
-  <si>
-    <t>Khoa học-5B</t>
-  </si>
-  <si>
-    <t>Chính tả-5C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2E</t>
-  </si>
-  <si>
-    <t>Chính tả-3A</t>
-  </si>
-  <si>
-    <t>Chính tả-3B</t>
-  </si>
-  <si>
-    <t>Chính tả-3C</t>
-  </si>
-  <si>
-    <t>Chính tả-3D</t>
-  </si>
-  <si>
-    <t>Lịch sử-4C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5C</t>
-  </si>
-  <si>
-    <t>Chính tả-5D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1D</t>
-  </si>
-  <si>
-    <t>Chính tả-2A</t>
-  </si>
-  <si>
-    <t>Chính tả-2B</t>
-  </si>
-  <si>
-    <t>Chính tả-2C</t>
-  </si>
-  <si>
-    <t>Chính tả-2D</t>
-  </si>
-  <si>
-    <t>Chính tả-2E</t>
-  </si>
-  <si>
     <t>Thứ 7</t>
-  </si>
-  <si>
-    <t>Lịch sử-4A</t>
-  </si>
-  <si>
-    <t>Lịch sử-4B</t>
-  </si>
-  <si>
-    <t>Địa lý-4C</t>
-  </si>
-  <si>
-    <t>Lịch sử-5A</t>
-  </si>
-  <si>
-    <t>Lịch sử-5B</t>
-  </si>
-  <si>
-    <t>Chào cờ-5C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5D</t>
-  </si>
-  <si>
-    <t>Chào cờ-1B</t>
-  </si>
-  <si>
-    <t>Chào cờ-1C</t>
-  </si>
-  <si>
-    <t>Chào cờ-1D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3D</t>
-  </si>
-  <si>
-    <t>Địa lý-4A</t>
-  </si>
-  <si>
-    <t>Địa lý-4B</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-4C</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-5A</t>
-  </si>
-  <si>
-    <t>Địa lý-5B</t>
-  </si>
-  <si>
-    <t>Lịch sử-5C</t>
-  </si>
-  <si>
-    <t>Chào cờ-5D</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1186,7 @@
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
@@ -1218,12 +1194,12 @@
     <col min="9" max="9" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="22.280273" bestFit="true" customWidth="true" style="0"/>
@@ -1472,56 +1448,52 @@
         <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1532,61 +1504,61 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1597,59 +1569,63 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1660,58 +1636,64 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="O9" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1719,59 +1701,35 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1896,31 +1854,71 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -1930,45 +1928,65 @@
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="M16" s="3" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="V16" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -1980,58 +1998,64 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="R17" s="3" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2043,58 +2067,64 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2109,55 +2139,61 @@
         <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2165,68 +2201,30 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2239,60 +2237,24 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -2302,12 +2264,8 @@
       <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2390,31 +2348,71 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -2424,26 +2422,66 @@
       <c r="B26" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -2453,26 +2491,66 @@
       <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -2486,61 +2564,61 @@
         <v>122</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="V28" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -2551,59 +2629,65 @@
       <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="V29" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -2611,65 +2695,31 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -2679,60 +2729,26 @@
       <c r="B31" s="3">
         <v>2</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2742,60 +2758,26 @@
       <c r="B32" s="3">
         <v>3</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -2805,42 +2787,18 @@
       <c r="B33" s="3">
         <v>4</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -2884,31 +2842,71 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2919,25 +2917,63 @@
         <v>2</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2948,25 +2984,63 @@
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -2977,25 +3051,63 @@
         <v>4</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -3006,44 +3118,62 @@
         <v>5</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="M39" s="3" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -3051,63 +3181,31 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -3117,60 +3215,26 @@
       <c r="B41" s="3">
         <v>2</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -3180,54 +3244,22 @@
       <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -3241,63 +3273,25 @@
       <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
@@ -3311,92 +3305,92 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
@@ -3407,25 +3401,63 @@
         <v>2</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -3436,25 +3468,63 @@
         <v>3</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
@@ -3465,25 +3535,63 @@
         <v>4</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -3494,32 +3602,70 @@
         <v>5</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
@@ -3554,63 +3700,25 @@
         <v>2</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>209</v>
-      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -3624,54 +3732,22 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
@@ -3681,58 +3757,26 @@
       <c r="B53" s="3">
         <v>4</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="T53" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="U53" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
@@ -3742,121 +3786,57 @@
       <c r="B54" s="3">
         <v>5</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T55" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="U55" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -3866,42 +3846,18 @@
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4003,7 +3959,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -4163,8 +4119,8 @@
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/export/tkbpccm.xlsx
+++ b/public/export/tkbpccm.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Tổ chủ nhiệm" sheetId="1" r:id="rId4"/>
+    <sheet name="Tổ Toán" sheetId="1" r:id="rId4"/>
     <sheet name="TKB to chuyen mon" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+  <si>
+    <t>THỜI KHÓA BIỂU Tổ TOáN</t>
+  </si>
   <si>
     <t xml:space="preserve">Ngày thực hiện </t>
   </si>
@@ -27,94 +30,217 @@
     <t>Tiết</t>
   </si>
   <si>
-    <t>Nguyễn Thị Phương</t>
-  </si>
-  <si>
-    <t>Niê H Loan</t>
-  </si>
-  <si>
-    <t>Pi Năng Mỹ Ba</t>
-  </si>
-  <si>
-    <t>Hứa Văn Dũng</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Hợp</t>
-  </si>
-  <si>
-    <t>Trần Thị Tao</t>
-  </si>
-  <si>
-    <t>Lưu Thị Phương</t>
-  </si>
-  <si>
-    <t>Triệu Vĩ Đại</t>
-  </si>
-  <si>
-    <t>Triệu Thị Thu Hằng</t>
-  </si>
-  <si>
-    <t>Cao Văn Khải</t>
-  </si>
-  <si>
-    <t>Lê Thị Ánh</t>
-  </si>
-  <si>
-    <t>Đinh Văn Trực</t>
-  </si>
-  <si>
-    <t>Mai Chí Thắng</t>
-  </si>
-  <si>
-    <t>Trương Văn Sáu</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Ngọc Hiệp</t>
-  </si>
-  <si>
-    <t>Bùi Văn Duyên</t>
-  </si>
-  <si>
-    <t>Hồ Nguyễn Minh Thư</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thắm</t>
-  </si>
-  <si>
-    <t>Thứ 2 sáng</t>
+    <t>Nguyễn Quốc Thiện</t>
+  </si>
+  <si>
+    <t>Ao Công Viên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Lam</t>
+  </si>
+  <si>
+    <t>Trần Xi</t>
+  </si>
+  <si>
+    <t>Trần Hữu Tùng</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Cử</t>
+  </si>
+  <si>
+    <t>Phạm Thị Oanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thêm</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>Chào cờ-6/3</t>
+  </si>
+  <si>
+    <t>Chào cờ-8/2</t>
+  </si>
+  <si>
+    <t>Chào cờ-9/2</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-6/3</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-8/2</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-9/2</t>
+  </si>
+  <si>
+    <t>Toán-8/2</t>
+  </si>
+  <si>
+    <t>Toán-9/2</t>
+  </si>
+  <si>
+    <t>Toán-8/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-9/3</t>
+  </si>
+  <si>
+    <t>Tin học-6/2</t>
+  </si>
+  <si>
+    <t>Tin học-7/2</t>
+  </si>
+  <si>
+    <t>Toán-6/3</t>
+  </si>
+  <si>
+    <t>Tin học-6/1</t>
   </si>
   <si>
     <t>Thứ 2 chiều</t>
   </si>
   <si>
-    <t>Thứ 3 sáng</t>
+    <t>Toán-7/3</t>
+  </si>
+  <si>
+    <t>Toán-6/2</t>
+  </si>
+  <si>
+    <t>Toán-7/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-6/2</t>
+  </si>
+  <si>
+    <t>Tin học-9/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-7/3</t>
+  </si>
+  <si>
+    <t>Toán-9/3</t>
+  </si>
+  <si>
+    <t>Vật Lý-8/3</t>
+  </si>
+  <si>
+    <t>Thứ 3</t>
+  </si>
+  <si>
+    <t>Toán-6/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-9/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-9/2</t>
+  </si>
+  <si>
+    <t>Tin học-8/3</t>
   </si>
   <si>
     <t>Thứ 3 chiều</t>
   </si>
   <si>
-    <t>Thứ 4 sáng</t>
+    <t>Toán-7/2</t>
+  </si>
+  <si>
+    <t>Vật Lý-7/1</t>
+  </si>
+  <si>
+    <t>Tin học-9/2</t>
+  </si>
+  <si>
+    <t>Công nghệ-8/1</t>
+  </si>
+  <si>
+    <t>Tin học-9/3</t>
+  </si>
+  <si>
+    <t>Tin học-6/3</t>
   </si>
   <si>
     <t>Thứ 4 chiều</t>
   </si>
   <si>
-    <t>Thứ 5 sáng</t>
+    <t>Tin học-7/3</t>
+  </si>
+  <si>
+    <t>Tin học-7/1</t>
+  </si>
+  <si>
+    <t>Công nghệ-6/3</t>
+  </si>
+  <si>
+    <t>Công nghệ-8/2</t>
+  </si>
+  <si>
+    <t>Công nghệ-9/1</t>
+  </si>
+  <si>
+    <t>Toán-8/3</t>
+  </si>
+  <si>
+    <t>Vật Lý-8/1</t>
+  </si>
+  <si>
+    <t>Toán-9/1</t>
+  </si>
+  <si>
+    <t>Thứ 5</t>
+  </si>
+  <si>
+    <t>Tin học-8/2</t>
+  </si>
+  <si>
+    <t>Vật Lý-6/3</t>
+  </si>
+  <si>
+    <t>Công nghệ-8/3</t>
+  </si>
+  <si>
+    <t>Vật Lý-7/2</t>
   </si>
   <si>
     <t>Thứ 5 chiều</t>
   </si>
   <si>
-    <t>Thứ 6 sáng</t>
+    <t>Công nghệ-9/3</t>
+  </si>
+  <si>
+    <t>Công nghệ-6/2</t>
+  </si>
+  <si>
+    <t>Thứ 6</t>
+  </si>
+  <si>
+    <t>Tin học-8/1</t>
   </si>
   <si>
     <t>Thứ 6 chiều</t>
   </si>
   <si>
-    <t>Thứ 7 sáng</t>
-  </si>
-  <si>
-    <t>Thứ 7 chiều</t>
+    <t>Vật Lý-6/1</t>
+  </si>
+  <si>
+    <t>Vật Lý-8/2</t>
+  </si>
+  <si>
+    <t>Công nghệ-9/2</t>
+  </si>
+  <si>
+    <t>Thứ 7</t>
+  </si>
+  <si>
+    <t>HĐNGLL-6/3</t>
+  </si>
+  <si>
+    <t>HĐNGLL-8/2</t>
+  </si>
+  <si>
+    <t>HĐNGLL-9/2</t>
   </si>
 </sst>
 </file>
@@ -494,10 +620,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:T64"/>
+      <selection activeCell="A2" sqref="A2:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,27 +631,17 @@
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="2" t="b">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -537,20 +653,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -561,18 +667,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -583,178 +679,128 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>5</v>
@@ -767,20 +813,10 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -788,47 +824,43 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>3</v>
@@ -837,46 +869,36 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>4</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>5</v>
@@ -889,116 +911,92 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="J17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>5</v>
@@ -1011,20 +1009,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1032,23 +1020,21 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="I20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>2</v>
@@ -1056,47 +1042,39 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="J21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>3</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="J22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>4</v>
@@ -1109,18 +1087,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>5</v>
@@ -1133,68 +1101,52 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="J25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>3</v>
@@ -1202,73 +1154,57 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -1277,70 +1213,56 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>2</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>3</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="J32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>4</v>
@@ -1353,18 +1275,8 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>5</v>
@@ -1377,92 +1289,72 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="J35" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>2</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="1:20">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="1:20">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>4</v>
@@ -1470,23 +1362,21 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="I38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>5</v>
@@ -1499,92 +1389,80 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="1:20">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>2</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="1:20">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="1:20">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>4</v>
@@ -1597,18 +1475,8 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="1:20">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>5</v>
@@ -1621,116 +1489,98 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="1:20">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="J45" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="1:20">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>3</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="J47" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>4</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="J48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>5</v>
@@ -1743,92 +1593,82 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="1:20">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="1:20">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>2</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="1:20">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>3</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="1:20">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>4</v>
@@ -1841,18 +1681,8 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="1:20">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>5</v>
@@ -1865,44 +1695,30 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="1:20">
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="1:20">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="3"/>
       <c r="B56" s="3">
         <v>2</v>
@@ -1915,18 +1731,8 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="1:20">
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>3</v>
@@ -1939,18 +1745,8 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="1:20">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>4</v>
@@ -1963,18 +1759,8 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="1:20">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="3"/>
       <c r="B59" s="3">
         <v>5</v>
@@ -1987,20 +1773,10 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="1:20">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -2013,18 +1789,8 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="1:20">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>2</v>
@@ -2037,18 +1803,8 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="3"/>
       <c r="B62" s="3">
         <v>3</v>
@@ -2061,18 +1817,8 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="1:20">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="3"/>
       <c r="B63" s="3">
         <v>4</v>
@@ -2085,18 +1831,8 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="1:20">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="3"/>
       <c r="B64" s="3">
         <v>5</v>
@@ -2109,16 +1845,6 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
